--- a/data/trans_camb/P24_5_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P24_5_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,32</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,67</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 6,37</t>
+          <t>-5,32; 7,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 6,95</t>
+          <t>-5,6; 7,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 6,57</t>
+          <t>-3,63; 9,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 2,21</t>
+          <t>-7,54; 4,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 9,2</t>
+          <t>-8,58; 6,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 4,68</t>
+          <t>1,25; 17,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 2,73</t>
+          <t>-6,33; 8,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 6,78</t>
+          <t>-2,79; 13,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,89</t>
+          <t>-5,57; 4,68</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 10,91</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 6,89</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,09; 6,74</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,58%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
+          <t>35,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,84%</t>
+          <t>-21,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>-7,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>51,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,53%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>-2,55%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>39,5%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11,58%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12,39%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 152,21</t>
+          <t>-49,15; 134,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 166,44</t>
+          <t>-56,25; 142,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,13; 161,71</t>
+          <t>-33,99; 191,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,81; 13,26</t>
+          <t>-69,98; 89,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 56,22</t>
+          <t>-39,83; 44,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,07; 27,15</t>
+          <t>5,24; 122,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 24,68</t>
+          <t>-29,81; 59,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 60,79</t>
+          <t>-13,73; 94,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 33,54</t>
+          <t>-35,47; 42,45</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 99,92</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-23,87; 61,0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-24,72; 62,56</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,47</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 1,46</t>
+          <t>-7,15; 4,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 5,78</t>
+          <t>-3,76; 9,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 2,61</t>
+          <t>-7,34; 4,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 6,75</t>
+          <t>-5,02; 8,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 3,67</t>
+          <t>-7,67; 11,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 13,59</t>
+          <t>-9,82; 9,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 2,29</t>
+          <t>-8,51; 11,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 2,58</t>
+          <t>-13,51; 5,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 5,61</t>
+          <t>-5,43; 6,66</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 7,1</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,74; 6,16</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-7,42; 4,37</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-38,94%</t>
+          <t>-16,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>42,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-31,14%</t>
+          <t>-20,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,77%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,48%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-14,95%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-12,03%</t>
+          <t>-15,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,83%</t>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-0,87%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-9,54%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-73,35; 31,49</t>
+          <t>-71,47; 145,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,99; 111,06</t>
+          <t>-40,8; 276,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,41; 53,42</t>
+          <t>-76,47; 151,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 33,47</t>
+          <t>-57,55; 239,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,76; 18,34</t>
+          <t>-26,73; 61,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 71,63</t>
+          <t>-35,39; 51,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,06; 17,42</t>
+          <t>-30,38; 63,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,78; 19,11</t>
+          <t>-47,23; 31,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,89; 41,26</t>
+          <t>-29,05; 55,67</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-25,3; 59,91</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-32,11; 50,8</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-39,88; 36,62</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-14,4</t>
+          <t>-17,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,11</t>
+          <t>-14,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-18,12</t>
+          <t>-25,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,64</t>
+          <t>-23,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-11,58</t>
+          <t>-9,17</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,37</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-10,95</t>
+          <t>-10,59</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-5,73</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-17,65</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-12,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-43,69; -0,24</t>
+          <t>-59,51; 9,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-38,24; 6,01</t>
+          <t>-55,79; 12,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-46,9; -5,7</t>
+          <t>-63,97; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 7,14</t>
+          <t>-65,29; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 16,25</t>
+          <t>-25,52; 16,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 12,4</t>
+          <t>-19,31; 24,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,97; -2,3</t>
+          <t>-29,06; 10,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 5,86</t>
+          <t>-21,87; 17,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-28,99; -2,16</t>
+          <t>-37,12; 5,69</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-32,61; 11,14</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-43,49; -2,79</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-37,31; 2,88</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1344,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-79,48%</t>
+          <t>-66,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-50,27%</t>
+          <t>-55,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1185,32 +1359,47 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-34,13%</t>
+          <t>-89,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>-13,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,09%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-53,8%</t>
+          <t>-31,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-20,32%</t>
+          <t>-8,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-50,87%</t>
+          <t>-38,89%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-21,04%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-64,81%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-47,32%</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1412,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 42,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-95,25; 135,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,32 +1427,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,96; 45,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,88; 97,21</t>
+          <t>-64,2; 86,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,09; 78,54</t>
+          <t>-50,46; 139,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-82,83; -8,28</t>
+          <t>-75,02; 63,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-63,81; 40,43</t>
+          <t>-61,74; 107,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-81,41; -10,81</t>
+          <t>-82,53; 43,91</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-75,06; 69,44</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-91,77; -10,82</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-84,0; 27,68</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 1,12</t>
+          <t>-9,94; 2,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 3,06</t>
+          <t>-9,19; 4,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 0,93</t>
+          <t>-9,89; 2,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 1,58</t>
+          <t>-10,86; 1,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 5,33</t>
+          <t>-6,19; 5,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 5,59</t>
+          <t>-1,24; 10,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 0,2</t>
+          <t>-5,77; 5,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 2,97</t>
+          <t>-5,2; 6,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,23</t>
+          <t>-5,76; 3,0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 6,84</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 2,93</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-5,25; 3,4</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-24,99%</t>
+          <t>-21,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,59%</t>
+          <t>-1,26%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-24,97%</t>
+          <t>-21,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-14,81%</t>
+          <t>-29,76%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-17,73%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-7,38%</t>
+          <t>-5,41%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-7,08%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-6,95%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,96; 18,7</t>
+          <t>-64,79; 45,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,73; 48,58</t>
+          <t>-60,15; 71,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,91; 15,05</t>
+          <t>-67,33; 44,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 8,15</t>
+          <t>-68,6; 27,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 28,63</t>
+          <t>-25,92; 29,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 29,2</t>
+          <t>-5,66; 57,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,08; 1,53</t>
+          <t>-23,77; 30,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 20,9</t>
+          <t>-21,4; 37,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 15,53</t>
+          <t>-30,69; 23,9</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 54,01</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-31,59; 21,4</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-29,22; 26,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
